--- a/WebServiceTests/Resources/TestSuite.xlsx
+++ b/WebServiceTests/Resources/TestSuite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>To Run</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>TestCaseData_DataValidationWithURI</t>
+  </si>
+  <si>
+    <t>TestCaseData_NavigationWithURI</t>
   </si>
 </sst>
 </file>
@@ -87,8 +93,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B4" totalsRowShown="0">
-  <autoFilter ref="A1:B4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6"/>
   <tableColumns count="2">
     <tableColumn id="1" name="To Run"/>
     <tableColumn id="2" name="Module Suite Identifier"/>
@@ -384,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,7 +411,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -421,10 +427,26 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/WebServiceTests/Resources/TestSuite.xlsx
+++ b/WebServiceTests/Resources/TestSuite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>To Run</t>
   </si>
@@ -37,10 +37,19 @@
     <t>No</t>
   </si>
   <si>
-    <t>TestCaseData_DataValidationWithURI</t>
-  </si>
-  <si>
-    <t>TestCaseData_NavigationWithURI</t>
+    <t>TestCaseData_NavigationTestsWithURI</t>
+  </si>
+  <si>
+    <t>TestCaseData_DataValidationTestsWithURI</t>
+  </si>
+  <si>
+    <t>TestCaseData_DataValidationTestsWithoutURI</t>
+  </si>
+  <si>
+    <t>TestCaseData_NavigationTestsWithoutURI</t>
+  </si>
+  <si>
+    <t>TestCaseData_CalculatorTestsWithURI</t>
   </si>
 </sst>
 </file>
@@ -93,8 +102,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B6" totalsRowShown="0">
-  <autoFilter ref="A1:B6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B9" totalsRowShown="0">
+  <autoFilter ref="A1:B9"/>
   <tableColumns count="2">
     <tableColumn id="1" name="To Run"/>
     <tableColumn id="2" name="Module Suite Identifier"/>
@@ -390,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -438,7 +447,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -446,7 +455,31 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/WebServiceTests/Resources/TestSuite.xlsx
+++ b/WebServiceTests/Resources/TestSuite.xlsx
@@ -402,7 +402,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WebServiceTests/Resources/TestSuite.xlsx
+++ b/WebServiceTests/Resources/TestSuite.xlsx
@@ -402,7 +402,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +452,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>

--- a/WebServiceTests/Resources/TestSuite.xlsx
+++ b/WebServiceTests/Resources/TestSuite.xlsx
@@ -402,7 +402,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +452,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
